--- a/EvaluationResults/Evaluation_Result_RQ1.xlsx
+++ b/EvaluationResults/Evaluation_Result_RQ1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10619\Desktop\openSource\Booster\EvaluationResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06D1373-51CD-4BEC-8076-F3F6E1424208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E6AD6D-E8EB-4D87-9E16-8338D989F5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1946" yWindow="-18617" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1850" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t>wikipedia_search</t>
   </si>
   <si>
-    <t>AVERAGE</t>
-  </si>
-  <si>
     <t>Length After Reduction (Booster)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +238,10 @@
   </si>
   <si>
     <t>Trial Saved Percentage (compared with LHDD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVERAGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +277,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,9 +292,6 @@
         <fgColor rgb="FFC7ECFF"/>
         <bgColor auto="1"/>
       </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
@@ -310,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,9 +329,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.5"/>
@@ -673,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -685,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>6</v>
@@ -697,7 +692,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>9</v>
@@ -710,22 +705,22 @@
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.5">
@@ -3770,34 +3765,9 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5">
-        <f>AVERAGE(H2:H40)</f>
-        <v>12.814441102823215</v>
-      </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5">
-        <f>AVERAGE(L2:L40)</f>
-        <v>0.19144269428031241</v>
-      </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5">
-        <f>AVERAGE(P2:P40)</f>
-        <v>1.7280789950144866</v>
-      </c>
-      <c r="Q41" s="5"/>
+      <c r="Q41" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="R41" s="5">
         <f t="shared" ref="R41:W41" si="9">AVERAGE(R2:R40)</f>
         <v>6759.8974358974356</v>
@@ -3823,26 +3793,7 @@
         <v>0.87105591394980819</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="7"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5">
-        <f>H41/L41</f>
-        <v>66.936171949503461</v>
-      </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.5">
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
@@ -3852,25 +3803,6 @@
       <c r="W42" s="5"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5">
-        <f>H41/P41</f>
-        <v>7.4154255330878502</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
